--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.2_TYU.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.2_TYU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mallika/Dropbox/Accounting Courseware/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DFEFFD-A42C-4335-9C14-3C2213D1DB2E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520A61B6-66BC-9643-80D9-B7262D4A5674}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12480" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -57,22 +57,10 @@
     <t>Wages Expense</t>
   </si>
   <si>
-    <t>a.</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Rent Expense</t>
   </si>
   <si>
-    <t>b.</t>
-  </si>
-  <si>
     <t>Fees Earned</t>
-  </si>
-  <si>
-    <t>c.</t>
-  </si>
-  <si>
-    <t>d.</t>
   </si>
 </sst>
 </file>
@@ -579,18 +567,18 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="5" width="14.28515625" customWidth="1"/>
+    <col min="4" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13"/>
       <c r="B1" s="12" t="s">
         <v>0</v>
@@ -605,25 +593,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="8">
+        <v>43770</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="D3" s="2">
         <v>200</v>
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -633,43 +621,43 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5"/>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>10</v>
+    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="8">
+        <v>43773</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2">
         <v>600</v>
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="10"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
-        <v>12</v>
+    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="8">
+        <v>43775</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>5</v>
@@ -679,7 +667,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>6</v>
@@ -689,15 +677,15 @@
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>13</v>
+    <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="8">
+        <v>43776</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -707,7 +695,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" s="7" t="s">
         <v>4</v>
@@ -717,7 +705,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="8"/>
       <c r="C14" s="11"/>
       <c r="D14" s="2"/>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.2_TYU.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.2_TYU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mallika/Dropbox/Accounting Courseware/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520A61B6-66BC-9643-80D9-B7262D4A5674}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAFB73A-B898-4110-BAFC-44E76C7E707B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12480" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="12480" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Credit</t>
   </si>
   <si>
-    <t>Cash</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Cash</t>
   </si>
   <si>
@@ -61,6 +58,12 @@
   </si>
   <si>
     <t>Fees Earned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Fees Earned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Cash</t>
   </si>
 </sst>
 </file>
@@ -121,7 +124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -185,19 +188,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -222,9 +212,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -237,10 +224,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,20 +557,20 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="5" width="14.33203125" customWidth="1"/>
+    <col min="4" max="5" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13"/>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -593,55 +583,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="8">
+    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7">
         <v>43770</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>8</v>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D3" s="2">
         <v>200</v>
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="8">
+    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
         <v>43773</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2">
         <v>600</v>
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2"/>
@@ -649,65 +639,65 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
-      <c r="C8" s="10"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="8">
+    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
         <v>43775</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>5</v>
+      <c r="C9" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="D9" s="2">
         <v>900</v>
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="8">
+    <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
         <v>43776</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
-      <c r="C13" s="7" t="s">
-        <v>4</v>
+      <c r="C13" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="D13" s="2">
         <v>400</v>
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="8"/>
-      <c r="C14" s="11"/>
+    <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3"/>
     </row>
